--- a/biology/Zoologie/Éléments_d'épidémiologie_concernant_la_grippe/Éléments_d'épidémiologie_concernant_la_grippe.xlsx
+++ b/biology/Zoologie/Éléments_d'épidémiologie_concernant_la_grippe/Éléments_d'épidémiologie_concernant_la_grippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article sur les éléments d'épidémiologie concernant la grippe est un des sous-chapitres de l'article Grippe aviaire. Sans avoir vocation à remplacer un traité vétérinaire, il traite des aspects diagnostics et prophylaxie
 Le virus de la grippe aviaire mute facilement et fréquemment. Plusieurs de ses formes peuvent infecter à la fois l’Homme et l’Animal.Ceci rend l'éco-épidémiologie de ce virus particulièrement complexe, d’autant que la mondialisation de l’élevage et du commerce, ainsi que l’accélération des transports, sont des facteurs susceptibles d’avoir considérablement transformé les causes, l'ampleur et l’incidence des zoonoses et dans ce cas des épidémies humaines.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Origine, ancêtre du virus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Qui a apporté le premier virus à l'Homme, au cochon et au poulet ?
 On l'ignore, mais on a trouvé chez les oiseaux et uniquement chez les oiseaux tous les sérotypes connus du virus de la grippe.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Réservoir du virus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>- Les sols ou eaux gelées de la zone paléarctique (du Canada à la Sibérie en passant par la Norvège, la Suède..) pourraient jouer un rôle passif de réservoir hivernal pour le virus.
 - Les virus grippaux des oiseaux constituent en tous cas un des gisements mobiles de gènes viraux. L'espèce humaine, les porcs, poules, canards, oies, cailles, chevaux, chameaux et autres autruches en constituent d'autres (réservoirs) ;
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,14 +605,16 @@
           <t>Durée de vie du virus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de l'influenza aviaire est réputé mieux survivre dans les tissus où il s'est reproduit, dans les excréments qui sont la première source de contamination pour l'oiseau, et dans l'eau (sauf si elle est acide ou chaude). 
 -  Il résiste 7 jours à 20 °C, 35 jours à 4 °C, selon le cours de Jean-Pierre Ganière de l'ENVN de Maison-Alfort (donnée de mi-2005).
 -  Il résiste 3 mois dans une eau légèrement basique et à des températures modérées selon l'AFSSA (2005).
 -  Mais d'autres sources portent cette durée à 105 jours, voire plusieurs mois quand la température est inférieure à 0 °C.
 - Il résiste 105 jours dans le fumier et plusieurs heures dans le mucus séché, avec peut être des différences selon les variants ou des conditions mal comprises (teneur de l'eau en oxygène, exposition aux UV solaires, nature du biofilm, etc.).
-Voir à ce propos[1]
+Voir à ce propos
 </t>
         </is>
       </c>
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Incubation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'incubation est réputée durer de 24/48 heures à 7 jours selon l'isolat, la dose d'inoculum, l'espèce, l'âge et l'état de l'oiseau infecté et peut-être selon d'autres conditions mal comprises (interaction avec autres pathogènes ? saison..). Un oiseau vacciné ou qui a survécu à un premier contact avec le virus, ou un variant proche est immunisé mais il peut développer une forme discrète ou asymptomatique de la maladie, c’est-à-dire excréter quelque temps une certaine quantité de virus.
 - Chez les poulets, l'incubation est parfois très brève (24/48 h). Et un élevage peut connaître un taux de mortalité proche de 100 % en 48 heures.
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,7 +677,9 @@
           <t>Contagion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se ferait essentiellement par transmission directe (contact) mais aussi indirecte (aliments contaminés par des fientes d'oiseaux sauvages, emballages souillés…). L'œuf infecté (cru ou mal cuit) est contaminant. 
 - Les voies de pénétration sont digestives et/ou respiratoires.
@@ -676,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,7 +716,9 @@
           <t>Localisation du virus dans l'organisme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le virus de la grippe humaine saisonnière classique infecte habituellement d'abord les poumons puis parfois le tube digestif. Les récepteurs cellulaires de ce virus sont plutôt groupés dans la partie haute du système respiratoire (bronches, pharynx, trachée et muqueuse nasale), ce qui explique la forte contagiosité de cette grippe, et à l'opposé, la faible transmission interhumaine actuelle du H5N1 dont les cibles sont situées dans le fond des poumons. On craint cependant toujours une mutation permettant au H5N1 d'infecter la partie supérieure du système respiratoire.
 Les virologues avaient déjà noté en 2005, qu'au contraire de la grippe saisonnière, la grippe aviaire de type A (H5N1) pouvait chez l'Homme produire des titres viraux (taux de virus dans le mucus) plus élevés dans la gorge que dans le nez (Les écouvillonnages devraient dont plutôt être faits en fond de gorge. Des échantillons des voies respiratoires inférieures pourraient offrir des moyens de diagnostic plus sensibles, et que des tests faits sur des échantillons recueillis dans le nez, mais il reste intéressant d'échantillonner le nez pour détecter une éventuelle mutation rendant le virus capable d'infecter la partie haute des poumons, dont la sphère ORL).
@@ -718,7 +742,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_d%27%C3%A9pid%C3%A9miologie_concernant_la_grippe</t>
+          <t>Éléments_d'épidémiologie_concernant_la_grippe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -736,7 +760,9 @@
           <t>Conclusion provisoire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2006, malgré des progrès significatifs, on sait encore peu de chose sur l’éco-épidémiologie de la grippe aviaire et sur la prévalence du virus dans la nature.
 Avec le développement d’études sur le suivi des oiseaux migrateurs, et le classement des virus grippaux hautement pathogènes  en maladie à déclaration obligatoire (c’est-à-dire désignée par l’Administration vétérinaire comme virus « dont la détection ou la suspicion doit être portée immédiatement à la connaissance de l’Autorité vétérinaire, conformément aux réglementations nationales, selon l’OIE), la connaissance devrait progresser. Certains experts craignent qu’en ciblant trop les recherches sur l’oiseau, on omette une partie du cycle du virus qui pourrait éventuellement être lié à d’autres espèces. Il faut en particulier comprendre comment ce virus réputé être détruit par la chaleur survit si bien dans des pays tels que l’Indonésie.
